--- a/InputFiles/TC01_Canine_Filter_Sex-Male.xlsx
+++ b/InputFiles/TC01_Canine_Filter_Sex-Male.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\yes breed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohilz2\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD81BF1B-1CC2-417D-BE70-C77D1AE82A15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E313695B-A303-4E5D-A047-CA88F50FB176}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10" windowWidth="19200" windowHeight="10190" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="startup" sheetId="1" r:id="rId1"/>
@@ -131,8 +131,7 @@
         coalesce(demo.sex, '') AS Sex ,
         coalesce(demo.neutered_indicator, '') AS `Neutered Status`,
         coalesce(demo.weight, '') AS `Weight (kg)`,
-        coalesce(diag.best_response, '') AS `Response to Treatment`,
-        coalesce(co.cohort_description, '') AS `Cohort`</t>
+        coalesce(diag.best_response, '') AS `Response to Treatment`</t>
   </si>
 </sst>
 </file>
@@ -504,20 +503,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="87.6328125" customWidth="1"/>
-    <col min="3" max="3" width="75.81640625" customWidth="1"/>
-    <col min="4" max="4" width="70.26953125" customWidth="1"/>
-    <col min="5" max="5" width="28.54296875" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="87.6640625" customWidth="1"/>
+    <col min="3" max="3" width="75.77734375" customWidth="1"/>
+    <col min="4" max="4" width="70.21875" customWidth="1"/>
+    <col min="5" max="5" width="28.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -534,7 +533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="261" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -551,7 +550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="246.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -568,7 +567,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="246.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
